--- a/biology/Botanique/Gnaphale_visqueuse/Gnaphale_visqueuse.xlsx
+++ b/biology/Botanique/Gnaphale_visqueuse/Gnaphale_visqueuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudognaphalium viscosum, Gnaphalium viscosum
 La Gnaphale visqueuse, Pseudognaphalium viscosum, anciennement Gnaphalium viscosum, est une espèce de plantes à fleurs de la famille des Asteraceae.
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Pseudognaphalium viscosum (Kunth) Anderb. 1991[1].
-L'espèce a été initialement classée dans le genre Gnaphalium sous le basionyme Gnaphalium viscosum (Kunth) Kunth[2].
-Pseudognaphalium viscosum a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Pseudognaphalium viscosum (Kunth) Anderb. 1991.
+L'espèce a été initialement classée dans le genre Gnaphalium sous le basionyme Gnaphalium viscosum (Kunth) Kunth.
+Pseudognaphalium viscosum a pour synonymes :
 Gnaphalium crenatum Greenm.
 Gnaphalium decurrens var. glandulosum Osterh.
 Gnaphalium gracile Kunth
@@ -560,9 +574,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Gnaphale visqueuse est une plante herbacée annuelle ou bisannuelle, résineuse et odorante. La tige, longue de 60 à 100 cm, est feuillée et ramifiée en corymbe dans sa partie supérieure. Les feuilles, longue de 3 à 8 cm, sont décurrentes sur la tige[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Gnaphale visqueuse est une plante herbacée annuelle ou bisannuelle, résineuse et odorante. La tige, longue de 60 à 100 cm, est feuillée et ramifiée en corymbe dans sa partie supérieure. Les feuilles, longue de 3 à 8 cm, sont décurrentes sur la tige.
 </t>
         </is>
       </c>
@@ -591,7 +607,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gnaphale visqueuse préfère les sols sablonneux, dans les lieux ouverts. La Gnaphale visqueuse pousse dans les prairies, dans les pâturages, dans les clairières et les orées des forêts.
 </t>
